--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_004_3feb2022.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_004_3feb2022.xlsx
@@ -1881,7 +1881,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
